--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">TOPOTRON – BILL OF MATERIALS</t>
+    <t xml:space="preserve">TOPOTRON – LISTA DE MATERIALES</t>
   </si>
   <si>
     <t xml:space="preserve">Item</t>
   </si>
   <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost</t>
+    <t xml:space="preserve">Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -167,16 +167,14 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="36.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
